--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.676192731485866</v>
+        <v>9.6761926965621683</v>
       </c>
       <c r="C2">
-        <v>12.361072255788581</v>
+        <v>12.361072256179661</v>
       </c>
       <c r="D2">
-        <v>17.02780895918729</v>
+        <v>17.027808958496223</v>
       </c>
       <c r="E2">
-        <v>9.5199558846684127</v>
+        <v>9.5199558960971533</v>
       </c>
       <c r="F2">
-        <v>8.3004197903657673</v>
+        <v>8.300419795727052</v>
       </c>
       <c r="G2">
-        <v>10.573956214960489</v>
+        <v>10.573956225797431</v>
       </c>
       <c r="H2">
-        <v>16.274486254206462</v>
+        <v>16.274486228514412</v>
       </c>
       <c r="I2">
-        <v>15.474878929991622</v>
+        <v>15.474878928871036</v>
       </c>
       <c r="J2">
-        <v>16.127418677445633</v>
+        <v>16.127418686918571</v>
       </c>
       <c r="K2">
-        <v>13.943514623146125</v>
+        <v>13.943514610301111</v>
       </c>
       <c r="L2">
-        <v>19.910242644908177</v>
+        <v>19.910242638818406</v>
       </c>
       <c r="M2">
-        <v>8.8914566685806076</v>
+        <v>8.8914566595277726</v>
       </c>
       <c r="N2">
-        <v>14.944107140847677</v>
+        <v>14.944107137973889</v>
       </c>
       <c r="O2">
-        <v>10.722596725550366</v>
+        <v>10.72259672784131</v>
       </c>
       <c r="P2">
-        <v>20.935776953158872</v>
+        <v>20.935776932578399</v>
       </c>
       <c r="Q2">
-        <v>14.397063005590057</v>
+        <v>14.397063019353471</v>
       </c>
       <c r="R2">
-        <v>15.43074188748896</v>
+        <v>15.430741855631982</v>
       </c>
       <c r="S2">
-        <v>14.441349189629992</v>
+        <v>14.441349178672533</v>
       </c>
       <c r="T2">
-        <v>16.595489193256483</v>
+        <v>16.59548918560569</v>
       </c>
       <c r="U2">
-        <v>12.954282038616025</v>
+        <v>12.954282036945418</v>
       </c>
       <c r="V2">
-        <v>20.036788658052192</v>
+        <v>20.036788646442201</v>
       </c>
       <c r="W2">
-        <v>19.809007498096172</v>
+        <v>19.809007502339334</v>
       </c>
       <c r="X2">
-        <v>13.98618002332057</v>
+        <v>13.986180027639598</v>
       </c>
       <c r="Y2">
-        <v>9.8742108344202038</v>
+        <v>9.8742108336104693</v>
       </c>
       <c r="Z2">
-        <v>16.025290903214859</v>
+        <v>16.025290903502118</v>
       </c>
       <c r="AA2">
-        <v>11.164697031420335</v>
+        <v>11.16469701461493</v>
       </c>
       <c r="AB2">
-        <v>15.247584842859801</v>
+        <v>15.247584824196341</v>
       </c>
       <c r="AC2">
-        <v>15.782191653973323</v>
+        <v>15.782191657862484</v>
       </c>
       <c r="AD2">
-        <v>9.4530943625511856</v>
+        <v>9.4530943736632214</v>
       </c>
       <c r="AE2">
-        <v>10.981523038755933</v>
+        <v>10.981523045182612</v>
       </c>
       <c r="AF2">
-        <v>14.295296580522447</v>
+        <v>14.295296556358561</v>
       </c>
       <c r="AG2">
-        <v>7.3833050375160694</v>
+        <v>7.383305054097713</v>
       </c>
       <c r="AH2">
-        <v>15.797316470395838</v>
+        <v>15.797316480962056</v>
       </c>
       <c r="AI2">
-        <v>16.248876370109809</v>
+        <v>16.248876373915543</v>
       </c>
       <c r="AJ2">
-        <v>20.046574250344523</v>
+        <v>20.046574259703902</v>
       </c>
       <c r="AK2">
-        <v>14.580391651613365</v>
+        <v>14.580391648280747</v>
       </c>
       <c r="AL2">
-        <v>7.4627989994795207</v>
+        <v>7.4627990054742384</v>
       </c>
       <c r="AM2">
-        <v>15.444149974701496</v>
+        <v>15.444149973304473</v>
       </c>
       <c r="AN2">
-        <v>8.5194839118501147</v>
+        <v>8.5194839159582045</v>
       </c>
       <c r="AO2">
-        <v>20.739770828794715</v>
+        <v>20.739770823786767</v>
       </c>
       <c r="AP2">
-        <v>15.48755105418198</v>
+        <v>15.487551072085001</v>
       </c>
       <c r="AQ2">
-        <v>14.111444274850054</v>
+        <v>14.111444273894552</v>
       </c>
       <c r="AR2">
-        <v>9.9163259810052828</v>
+        <v>9.9163259943082807</v>
       </c>
       <c r="AS2">
-        <v>14.74128550860504</v>
+        <v>14.741285504241887</v>
       </c>
       <c r="AT2">
-        <v>6.6422904859884326</v>
+        <v>6.6422904908499412</v>
       </c>
       <c r="AU2">
-        <v>17.565315739271917</v>
+        <v>17.565315745516536</v>
       </c>
       <c r="AV2">
-        <v>16.300439147161818</v>
+        <v>16.300439160304784</v>
       </c>
       <c r="AW2">
-        <v>18.43530051315183</v>
+        <v>18.435300506839109</v>
       </c>
       <c r="AX2">
-        <v>7.8661138308213365</v>
+        <v>7.8661138209073727</v>
       </c>
       <c r="AY2">
-        <v>16.042814675064829</v>
+        <v>16.042814679493016</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>12.806800947674994</v>
+        <v>12.806800964289778</v>
       </c>
       <c r="C3">
-        <v>14.630174790657534</v>
+        <v>14.63017478803517</v>
       </c>
       <c r="D3">
-        <v>13.869973503297974</v>
+        <v>13.869973522497123</v>
       </c>
       <c r="E3">
-        <v>4.8572584853179057</v>
+        <v>4.8572584570796034</v>
       </c>
       <c r="F3">
-        <v>16.832128443532866</v>
+        <v>16.832128444280887</v>
       </c>
       <c r="G3">
-        <v>10.619070050116052</v>
+        <v>10.619070051690187</v>
       </c>
       <c r="H3">
-        <v>10.430078071088436</v>
+        <v>10.430078071671781</v>
       </c>
       <c r="I3">
-        <v>12.053992783408969</v>
+        <v>12.053992777272716</v>
       </c>
       <c r="J3">
-        <v>9.8972376647942593</v>
+        <v>9.8972376228623844</v>
       </c>
       <c r="K3">
-        <v>7.5058667168424389</v>
+        <v>7.5058667094093909</v>
       </c>
       <c r="L3">
-        <v>14.119952095010365</v>
+        <v>14.119952084233644</v>
       </c>
       <c r="M3">
-        <v>8.671895949463897</v>
+        <v>8.6717272727552768</v>
       </c>
       <c r="N3">
-        <v>13.133227671485059</v>
+        <v>13.133227646912529</v>
       </c>
       <c r="O3">
-        <v>13.619551458531877</v>
+        <v>13.619551474655086</v>
       </c>
       <c r="P3">
-        <v>15.47489607864196</v>
+        <v>15.474896078886839</v>
       </c>
       <c r="Q3">
-        <v>14.100922128595668</v>
+        <v>14.100922118269947</v>
       </c>
       <c r="R3">
-        <v>15.711694742447122</v>
+        <v>15.711694743023926</v>
       </c>
       <c r="S3">
-        <v>14.910943325317179</v>
+        <v>14.910943333074879</v>
       </c>
       <c r="T3">
-        <v>15.472363893757819</v>
+        <v>15.472363899138161</v>
       </c>
       <c r="U3">
-        <v>14.379692897921263</v>
+        <v>14.379692908048643</v>
       </c>
       <c r="V3">
-        <v>20.856792671485785</v>
+        <v>20.856792680276449</v>
       </c>
       <c r="W3">
-        <v>18.682103873008145</v>
+        <v>18.682103869602695</v>
       </c>
       <c r="X3">
-        <v>15.355208351352088</v>
+        <v>15.355208351682853</v>
       </c>
       <c r="Y3">
-        <v>10.042909397838429</v>
+        <v>10.042909413008335</v>
       </c>
       <c r="Z3">
-        <v>13.038328895532288</v>
+        <v>13.038328896838081</v>
       </c>
       <c r="AA3">
-        <v>13.073856736185805</v>
+        <v>13.073856728873588</v>
       </c>
       <c r="AB3">
-        <v>7.1349125462765937</v>
+        <v>7.1349125381404335</v>
       </c>
       <c r="AC3">
-        <v>10.08932362563222</v>
+        <v>10.089323632139617</v>
       </c>
       <c r="AD3">
-        <v>7.2989636424127537</v>
+        <v>7.2989636131871922</v>
       </c>
       <c r="AE3">
-        <v>12.836370832050243</v>
+        <v>12.836370837989371</v>
       </c>
       <c r="AF3">
-        <v>8.5999914370067643</v>
+        <v>8.5999914344068742</v>
       </c>
       <c r="AG3">
-        <v>15.800940450384488</v>
+        <v>15.80094045372325</v>
       </c>
       <c r="AH3">
-        <v>6.389380830064435</v>
+        <v>6.3893808659368538</v>
       </c>
       <c r="AI3">
-        <v>5.3909709840697628</v>
+        <v>5.3909709901969123</v>
       </c>
       <c r="AJ3">
-        <v>9.9902113935271402</v>
+        <v>9.9902114031318856</v>
       </c>
       <c r="AK3">
-        <v>8.7110236631276727</v>
+        <v>8.711023680929987</v>
       </c>
       <c r="AL3">
-        <v>13.58677778825086</v>
+        <v>13.586777796458144</v>
       </c>
       <c r="AM3">
-        <v>12.032620576277502</v>
+        <v>12.032620589411417</v>
       </c>
       <c r="AN3">
-        <v>15.237573165141217</v>
+        <v>15.237573179338705</v>
       </c>
       <c r="AO3">
-        <v>13.30896008946713</v>
+        <v>13.308960104038306</v>
       </c>
       <c r="AP3">
-        <v>12.027549374787075</v>
+        <v>12.027549388285063</v>
       </c>
       <c r="AQ3">
-        <v>17.489390053584955</v>
+        <v>17.489390051711105</v>
       </c>
       <c r="AR3">
-        <v>13.813565333589475</v>
+        <v>13.813565334404448</v>
       </c>
       <c r="AS3">
-        <v>17.11252974999276</v>
+        <v>17.112529757626017</v>
       </c>
       <c r="AT3">
-        <v>13.212123158330987</v>
+        <v>13.212123160611879</v>
       </c>
       <c r="AU3">
-        <v>21.928515771877382</v>
+        <v>21.928515788973893</v>
       </c>
       <c r="AV3">
-        <v>13.671786414931034</v>
+        <v>13.671786421601052</v>
       </c>
       <c r="AW3">
-        <v>9.5003055720149909</v>
+        <v>9.5003055844514499</v>
       </c>
       <c r="AX3">
-        <v>19.352944450038294</v>
+        <v>19.352944438180963</v>
       </c>
       <c r="AY3">
-        <v>11.675595523416641</v>
+        <v>11.675595516656333</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>9.6761926965621683</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>12.361072256179661</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>17.027808958496223</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>9.5199558960971533</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>8.300419795727052</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>10.573956225797431</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>16.274486228514412</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>15.474878928871036</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>16.127418686918571</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>13.943514610301111</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>19.910242638818406</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>8.8914566595277726</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>14.944107137973889</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>10.72259672784131</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>20.935776932578399</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.397063019353471</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>15.430741855631982</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>14.441349178672533</v>
+        <v>16.627811817771068</v>
       </c>
       <c r="T2">
         <v>16.59548918560569</v>
@@ -588,55 +477,55 @@
         <v>16.025290903502118</v>
       </c>
       <c r="AA2">
-        <v>11.16469701461493</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>15.247584824196341</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>15.782191657862484</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>9.4530943736632214</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>10.981523045182612</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>14.295296556358561</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>7.383305054097713</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>15.797316480962056</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>16.248876373915543</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>20.046574259703902</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>14.580391648280747</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>7.4627990054742384</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>15.444149973304473</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>8.5194839159582045</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>20.739770823786767</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>15.487551072085001</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>14.111444273894552</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>9.9163259943082807</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>12.806800964289778</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>14.63017478803517</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>13.869973522497123</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4.8572584570796034</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>16.832128444280887</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>10.619070051690187</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>10.430078071671781</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>12.053992777272716</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>9.8972376228623844</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>7.5058667094093909</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>14.119952084233644</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>8.6717272727552768</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.133227646912529</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>13.619551474655086</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>15.474896078886839</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.100922118269947</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>15.711694743023926</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>14.910943333074879</v>
@@ -743,55 +629,55 @@
         <v>13.038328896838081</v>
       </c>
       <c r="AA3">
-        <v>13.073856728873588</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>7.1349125381404335</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>10.089323632139617</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>7.2989636131871922</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>12.836370837989371</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>8.5999914344068742</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>15.80094045372325</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>6.3893808659368538</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>5.3909709901969123</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>9.9902114031318856</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>8.711023680929987</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>13.586777796458144</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>12.032620589411417</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>15.237573179338705</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>13.308960104038306</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>12.027549388285063</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>17.489390051711105</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>13.813565334404448</v>

--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.676192731485866</v>
+        <v>10.72259672784131</v>
       </c>
       <c r="C2">
-        <v>13.441508970789904</v>
+        <v>15.430741855631982</v>
       </c>
       <c r="D2">
-        <v>17.02780895918729</v>
+        <v>8.5194839159582045</v>
       </c>
       <c r="E2">
-        <v>9.5199558846684127</v>
+        <v>14.111444273894552</v>
       </c>
       <c r="F2">
         <v>8.3004197903657673</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>12.806800947674994</v>
+        <v>12.959001009682119</v>
       </c>
       <c r="C3">
-        <v>14.630174790657534</v>
+        <v>15.711694743023926</v>
       </c>
       <c r="D3">
-        <v>13.869973503297974</v>
+        <v>15.496726544888144</v>
       </c>
       <c r="E3">
-        <v>4.8572584853179057</v>
+        <v>15.341460935591842</v>
       </c>
       <c r="F3">
         <v>16.832128443532866</v>

--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.676192731485866</v>
+        <v>15.343105725750167</v>
       </c>
       <c r="C2">
-        <v>13.441508970789904</v>
+        <v>10.638188782169019</v>
       </c>
       <c r="D2">
-        <v>17.02780895918729</v>
+        <v>15.383311792664818</v>
       </c>
       <c r="E2">
-        <v>9.5199558846684127</v>
+        <v>7.8425795026476139</v>
       </c>
       <c r="F2">
         <v>8.3004197903657673</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>12.806800947674994</v>
+        <v>13.133227646912529</v>
       </c>
       <c r="C3">
-        <v>14.630174790657534</v>
+        <v>12.959001009682119</v>
       </c>
       <c r="D3">
-        <v>13.869973503297974</v>
+        <v>12.032620589411417</v>
       </c>
       <c r="E3">
-        <v>4.5458611593168845</v>
+        <v>15.496726544888144</v>
       </c>
       <c r="F3">
         <v>16.832128443532866</v>

--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>9.7474643494580615</v>
+      </c>
+      <c r="C2">
+        <v>13.441508962242384</v>
+      </c>
+      <c r="D2">
+        <v>17.424121432314234</v>
+      </c>
+      <c r="E2">
+        <v>9.0556352804987945</v>
+      </c>
+      <c r="F2">
+        <v>8.300419795727052</v>
+      </c>
+      <c r="G2">
+        <v>8.413810410898348</v>
+      </c>
+      <c r="H2">
+        <v>16.610677675755642</v>
+      </c>
+      <c r="I2">
+        <v>14.502267277995227</v>
+      </c>
+      <c r="J2">
+        <v>16.214428467119234</v>
+      </c>
+      <c r="K2">
+        <v>14.333161556707719</v>
+      </c>
+      <c r="L2">
+        <v>21.925849867931525</v>
+      </c>
+      <c r="M2">
+        <v>9.4792720507721562</v>
+      </c>
+      <c r="N2">
         <v>15.343105725750167</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>10.638188782169019</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>20.668635458185147</v>
+      </c>
+      <c r="Q2">
+        <v>14.397063019353471</v>
+      </c>
+      <c r="R2">
+        <v>15.430741855631982</v>
+      </c>
+      <c r="T2">
+        <v>16.674561370022314</v>
+      </c>
+      <c r="U2">
+        <v>13.11564629837722</v>
+      </c>
+      <c r="V2">
+        <v>17.862760664639644</v>
+      </c>
+      <c r="W2">
+        <v>19.247512632299614</v>
+      </c>
+      <c r="X2">
+        <v>14.188691994225991</v>
+      </c>
+      <c r="Y2">
+        <v>9.8601919619642295</v>
+      </c>
+      <c r="Z2">
+        <v>16.025290903502118</v>
+      </c>
+      <c r="AA2">
+        <v>11.15786114378726</v>
+      </c>
+      <c r="AB2">
+        <v>15.247584824196341</v>
+      </c>
+      <c r="AC2">
+        <v>15.572384265197833</v>
+      </c>
+      <c r="AD2">
+        <v>9.432446654476319</v>
+      </c>
+      <c r="AE2">
+        <v>10.981523045182612</v>
+      </c>
+      <c r="AF2">
+        <v>14.295296556358561</v>
+      </c>
+      <c r="AG2">
+        <v>7.6591939796104747</v>
+      </c>
+      <c r="AH2">
+        <v>15.605632343586159</v>
+      </c>
+      <c r="AI2">
+        <v>16.371188487040413</v>
+      </c>
+      <c r="AJ2">
+        <v>19.582323818292483</v>
+      </c>
+      <c r="AK2">
+        <v>14.731561865584</v>
+      </c>
+      <c r="AL2">
+        <v>7.4627990054742384</v>
+      </c>
+      <c r="AM2">
         <v>15.383311792664818</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>7.8425795026476139</v>
       </c>
-      <c r="F2">
-        <v>8.3004197903657673</v>
-      </c>
-      <c r="G2">
-        <v>8.4138104020843532</v>
-      </c>
-      <c r="H2">
-        <v>16.274486254206462</v>
-      </c>
-      <c r="I2">
-        <v>14.337989199256359</v>
-      </c>
-      <c r="J2">
-        <v>16.127418677445633</v>
-      </c>
-      <c r="K2">
-        <v>13.943514623146125</v>
-      </c>
-      <c r="L2">
-        <v>19.689786459829431</v>
-      </c>
-      <c r="M2">
-        <v>9.4792720535780148</v>
-      </c>
-      <c r="N2">
-        <v>15.2662555072442</v>
-      </c>
-      <c r="O2">
-        <v>10.722596725550366</v>
-      </c>
-      <c r="P2">
-        <v>20.668635477180363</v>
-      </c>
-      <c r="Q2">
-        <v>14.397063005590057</v>
-      </c>
-      <c r="R2">
-        <v>15.43074188748896</v>
-      </c>
-      <c r="T2">
-        <v>16.674561382012165</v>
-      </c>
-      <c r="U2">
-        <v>12.954282038616025</v>
-      </c>
-      <c r="V2">
-        <v>18.911889551312395</v>
-      </c>
-      <c r="W2">
-        <v>19.806578232547011</v>
-      </c>
-      <c r="X2">
-        <v>13.98618002332057</v>
-      </c>
-      <c r="Y2">
-        <v>9.8742108344202038</v>
-      </c>
-      <c r="Z2">
-        <v>16.025290903214859</v>
-      </c>
-      <c r="AA2">
-        <v>11.164697031420335</v>
-      </c>
-      <c r="AB2">
-        <v>15.247584842859801</v>
-      </c>
-      <c r="AC2">
-        <v>15.782191653973323</v>
-      </c>
-      <c r="AD2">
-        <v>9.4530943625511856</v>
-      </c>
-      <c r="AE2">
-        <v>10.981523038755933</v>
-      </c>
-      <c r="AF2">
-        <v>14.295296580522447</v>
-      </c>
-      <c r="AG2">
-        <v>7.3833050375160694</v>
-      </c>
-      <c r="AH2">
-        <v>15.797316470395838</v>
-      </c>
-      <c r="AI2">
-        <v>16.248876370109809</v>
-      </c>
-      <c r="AJ2">
-        <v>20.046574250344523</v>
-      </c>
-      <c r="AK2">
-        <v>14.580391651613365</v>
-      </c>
-      <c r="AL2">
-        <v>7.4627989994795207</v>
-      </c>
-      <c r="AM2">
-        <v>15.444149974701496</v>
-      </c>
-      <c r="AN2">
-        <v>8.5194839118501147</v>
-      </c>
       <c r="AO2">
-        <v>20.739770828794715</v>
+        <v>20.739770823786767</v>
       </c>
       <c r="AP2">
-        <v>15.133200627457382</v>
+        <v>15.133200656222499</v>
       </c>
       <c r="AQ2">
-        <v>14.111444274850054</v>
+        <v>14.111444273894552</v>
       </c>
       <c r="AR2">
-        <v>9.9163259810052828</v>
+        <v>9.6549892737036842</v>
       </c>
       <c r="AS2">
-        <v>14.74128550860504</v>
+        <v>14.741285504241887</v>
       </c>
       <c r="AT2">
-        <v>6.6422904859884326</v>
+        <v>6.3091750875692227</v>
       </c>
       <c r="AU2">
-        <v>20.160541153490023</v>
+        <v>20.141218821348112</v>
       </c>
       <c r="AV2">
-        <v>16.294231634395992</v>
+        <v>15.318259310345613</v>
       </c>
       <c r="AW2">
-        <v>18.43530051315183</v>
+        <v>18.351554318103538</v>
       </c>
       <c r="AX2">
-        <v>7.8661138308213365</v>
+        <v>7.6743771776859981</v>
       </c>
       <c r="AY2">
-        <v>16.042814675064829</v>
+        <v>16.042814679493016</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>12.806800964289778</v>
+      </c>
+      <c r="C3">
+        <v>15.55694398144119</v>
+      </c>
+      <c r="D3">
+        <v>13.869973522497123</v>
+      </c>
+      <c r="E3">
+        <v>4.54586113012612</v>
+      </c>
+      <c r="F3">
+        <v>16.988532594676869</v>
+      </c>
+      <c r="G3">
+        <v>10.692902934938363</v>
+      </c>
+      <c r="H3">
+        <v>10.430078071671781</v>
+      </c>
+      <c r="I3">
+        <v>12.053992777272716</v>
+      </c>
+      <c r="J3">
+        <v>9.8972376228623844</v>
+      </c>
+      <c r="K3">
+        <v>8.2404840754964788</v>
+      </c>
+      <c r="L3">
+        <v>14.119952084233644</v>
+      </c>
+      <c r="M3">
+        <v>9.5057162026036348</v>
+      </c>
+      <c r="N3">
         <v>13.133227646912529</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>12.959001009682119</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>15.581237125408849</v>
+      </c>
+      <c r="Q3">
+        <v>14.16028704227525</v>
+      </c>
+      <c r="R3">
+        <v>15.290699183815487</v>
+      </c>
+      <c r="S3">
+        <v>14.910943333074879</v>
+      </c>
+      <c r="T3">
+        <v>15.391894483977484</v>
+      </c>
+      <c r="U3">
+        <v>14.379692908048643</v>
+      </c>
+      <c r="V3">
+        <v>20.519005210642238</v>
+      </c>
+      <c r="W3">
+        <v>18.677473009459796</v>
+      </c>
+      <c r="X3">
+        <v>15.355208351682853</v>
+      </c>
+      <c r="Y3">
+        <v>10.042909413008335</v>
+      </c>
+      <c r="Z3">
+        <v>13.000704997239374</v>
+      </c>
+      <c r="AA3">
+        <v>13.073856728873588</v>
+      </c>
+      <c r="AB3">
+        <v>7.7983010674643545</v>
+      </c>
+      <c r="AC3">
+        <v>10.089323632139617</v>
+      </c>
+      <c r="AD3">
+        <v>7.2989636131871922</v>
+      </c>
+      <c r="AE3">
+        <v>12.696277003364111</v>
+      </c>
+      <c r="AF3">
+        <v>8.8460192354294058</v>
+      </c>
+      <c r="AG3">
+        <v>15.80094045372325</v>
+      </c>
+      <c r="AH3">
+        <v>6.3893808659368538</v>
+      </c>
+      <c r="AI3">
+        <v>9.0232432578326431</v>
+      </c>
+      <c r="AJ3">
+        <v>9.9902114031318856</v>
+      </c>
+      <c r="AK3">
+        <v>8.711023680929987</v>
+      </c>
+      <c r="AL3">
+        <v>13.247122221971145</v>
+      </c>
+      <c r="AM3">
         <v>12.032620589411417</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>15.496726544888144</v>
       </c>
-      <c r="F3">
-        <v>16.832128443532866</v>
-      </c>
-      <c r="G3">
-        <v>10.619070050116052</v>
-      </c>
-      <c r="H3">
-        <v>10.430078071088436</v>
-      </c>
-      <c r="I3">
-        <v>12.053992783408969</v>
-      </c>
-      <c r="J3">
-        <v>9.8972376647942593</v>
-      </c>
-      <c r="K3">
-        <v>8.240484090355876</v>
-      </c>
-      <c r="L3">
-        <v>14.119952095010365</v>
-      </c>
-      <c r="M3">
-        <v>10.221010612396746</v>
-      </c>
-      <c r="N3">
-        <v>13.133227671485059</v>
-      </c>
-      <c r="O3">
-        <v>12.959000993524288</v>
-      </c>
-      <c r="P3">
-        <v>15.47489607864196</v>
-      </c>
-      <c r="Q3">
-        <v>14.100922128595668</v>
-      </c>
-      <c r="R3">
-        <v>15.711694742447122</v>
-      </c>
-      <c r="S3">
-        <v>14.910943325317179</v>
-      </c>
-      <c r="T3">
-        <v>15.472363893757819</v>
-      </c>
-      <c r="U3">
-        <v>14.379692897921263</v>
-      </c>
-      <c r="V3">
-        <v>20.519005208981191</v>
-      </c>
-      <c r="W3">
-        <v>18.677473039302747</v>
-      </c>
-      <c r="X3">
-        <v>15.355208351352088</v>
-      </c>
-      <c r="Y3">
-        <v>10.042909397838429</v>
-      </c>
-      <c r="Z3">
-        <v>13.038328895532288</v>
-      </c>
-      <c r="AA3">
-        <v>13.073856736185805</v>
-      </c>
-      <c r="AB3">
-        <v>7.1349125462765937</v>
-      </c>
-      <c r="AC3">
-        <v>10.08932362563222</v>
-      </c>
-      <c r="AD3">
-        <v>7.2989636424127537</v>
-      </c>
-      <c r="AE3">
-        <v>12.836370832050243</v>
-      </c>
-      <c r="AF3">
-        <v>8.5999914370067643</v>
-      </c>
-      <c r="AG3">
-        <v>15.800940450384488</v>
-      </c>
-      <c r="AH3">
-        <v>6.389380830064435</v>
-      </c>
-      <c r="AI3">
-        <v>9.0232432529256918</v>
-      </c>
-      <c r="AJ3">
-        <v>9.9902113935271402</v>
-      </c>
-      <c r="AK3">
-        <v>8.7110236631276727</v>
-      </c>
-      <c r="AL3">
-        <v>13.58677778825086</v>
-      </c>
-      <c r="AM3">
-        <v>12.032620576277502</v>
-      </c>
-      <c r="AN3">
-        <v>15.496726527631465</v>
-      </c>
       <c r="AO3">
-        <v>13.30896008946713</v>
+        <v>13.357483084376341</v>
       </c>
       <c r="AP3">
-        <v>12.027549374787075</v>
+        <v>11.875829442708447</v>
       </c>
       <c r="AQ3">
-        <v>15.341460933347795</v>
+        <v>15.152048798862683</v>
       </c>
       <c r="AR3">
-        <v>13.813565333589475</v>
+        <v>13.813565334404448</v>
       </c>
       <c r="AS3">
-        <v>17.11252974999276</v>
+        <v>17.096921625717258</v>
       </c>
       <c r="AT3">
-        <v>13.212123158330987</v>
+        <v>13.212123160611879</v>
       </c>
       <c r="AU3">
-        <v>20.977322527168194</v>
+        <v>20.977322542978055</v>
       </c>
       <c r="AV3">
-        <v>13.668385637567965</v>
+        <v>13.668385645829119</v>
       </c>
       <c r="AW3">
-        <v>9.5003055720149909</v>
+        <v>9.5003055844514499</v>
       </c>
       <c r="AX3">
-        <v>19.352944450038294</v>
+        <v>19.352944438180963</v>
       </c>
       <c r="AY3">
-        <v>11.675595523416641</v>
+        <v>11.706818514104411</v>
       </c>
     </row>
   </sheetData>
